--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2562641.313947696</v>
+        <v>2561944.652742607</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114755</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5956852.695117959</v>
+        <v>5956852.695117958</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>187.7326189816948</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>281.0096757235079</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -828,10 +828,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>187.596624672461</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>111.7864557952823</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>113.6225837263661</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5418985363718</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>45.7335208396262</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>6.354375395473034</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1135,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>388.6273778113587</v>
+        <v>311.9192688324425</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1186,13 +1186,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>62.68487116923261</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>24.69876202492697</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188591</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1609,13 +1609,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>81.78220419439357</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1785,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>144.7456825169621</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>32.42363873680654</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2061,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>168.1487656894605</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868319</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396356</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686398</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>252.4383007065502</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>55.09707351428125</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>71.65681486460672</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2715,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>46.2821917202991</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.03628193154361</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3243,7 +3243,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>65.76071605987892</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3268,10 +3268,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855909</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458131</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>36.12736168857059</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855909</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458131</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>122.3482352174683</v>
       </c>
       <c r="U40" t="n">
-        <v>58.62462936157833</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3954,7 +3954,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155064</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3963,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>229.8822772104382</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924942</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>129.6305204384852</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0020284912554</v>
+        <v>1156.441578994798</v>
       </c>
       <c r="C2" t="n">
-        <v>399.1417025449596</v>
+        <v>1133.581253048502</v>
       </c>
       <c r="D2" t="n">
-        <v>379.889485770364</v>
+        <v>710.2886322335025</v>
       </c>
       <c r="E2" t="n">
-        <v>357.9529499586256</v>
+        <v>284.3116923813601</v>
       </c>
       <c r="F2" t="n">
-        <v>336.8691721884299</v>
+        <v>263.2279146111644</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182826</v>
+        <v>73.59900654884643</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231739</v>
+        <v>73.59900654884643</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231764</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231739</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347452</v>
+        <v>401.3055941092131</v>
       </c>
       <c r="L2" t="n">
-        <v>882.5260259873564</v>
+        <v>880.244518351644</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873564</v>
+        <v>1359.183442594075</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873564</v>
+        <v>1361.464950229797</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873564</v>
+        <v>1361.464950229797</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229784</v>
+        <v>1361.464950229797</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733967</v>
+        <v>1817.55042973398</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.10676461587</v>
+        <v>1935.106764615882</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.10676461587</v>
+        <v>1935.106764615882</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.10676461587</v>
+        <v>1935.106764615882</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.10676461587</v>
+        <v>1935.106764615882</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.258607319397</v>
+        <v>1577.617349742132</v>
       </c>
       <c r="W2" t="n">
-        <v>1254.867257619744</v>
+        <v>1181.226000042479</v>
       </c>
       <c r="X2" t="n">
-        <v>1247.187662827895</v>
+        <v>1173.54640525063</v>
       </c>
       <c r="Y2" t="n">
-        <v>841.8503927827855</v>
+        <v>1172.249539245924</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237729</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412777</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565627</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294999</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000781</v>
+        <v>92.07822853000806</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231764</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231739</v>
+        <v>46.14877825422948</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231739</v>
+        <v>317.8462675338205</v>
       </c>
       <c r="K3" t="n">
-        <v>38.70213529231739</v>
+        <v>796.7851917762514</v>
       </c>
       <c r="L3" t="n">
-        <v>38.70213529231739</v>
+        <v>1275.724116018682</v>
       </c>
       <c r="M3" t="n">
-        <v>343.3471304404893</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="N3" t="n">
-        <v>822.286054682917</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
         <v>1301.224978925345</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905433</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438356</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>534.484083718461</v>
+        <v>712.061451359217</v>
       </c>
       <c r="C4" t="n">
-        <v>534.484083718461</v>
+        <v>540.088888238133</v>
       </c>
       <c r="D4" t="n">
-        <v>371.1673108452317</v>
+        <v>376.7721153649037</v>
       </c>
       <c r="E4" t="n">
-        <v>204.9591049980853</v>
+        <v>210.5639095177572</v>
       </c>
       <c r="F4" t="n">
-        <v>204.9591049980853</v>
+        <v>38.70213529231764</v>
       </c>
       <c r="G4" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231764</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231764</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231764</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647542</v>
+        <v>96.19346351647566</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>322.7210647223129</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>677.4103860167336</v>
       </c>
       <c r="M4" t="n">
         <v>1068.596180986984</v>
@@ -4503,37 +4503,37 @@
         <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453207</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375108</v>
+        <v>1808.10663437512</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.10676461587</v>
+        <v>1935.106764615882</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303043</v>
+        <v>1888.068151303055</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822178</v>
+        <v>1888.068151303055</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048078</v>
+        <v>1888.068151303055</v>
       </c>
       <c r="U4" t="n">
-        <v>1474.593756048078</v>
+        <v>1607.88370280336</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.882288656107</v>
+        <v>1326.172235411389</v>
       </c>
       <c r="W4" t="n">
-        <v>1003.390748582914</v>
+        <v>1051.319831583902</v>
       </c>
       <c r="X4" t="n">
-        <v>760.8268520287189</v>
+        <v>938.404219669475</v>
       </c>
       <c r="Y4" t="n">
-        <v>534.484083718461</v>
+        <v>712.061451359217</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1616.479056928882</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>1593.618730982586</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>1574.366514207991</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>1148.389574355848</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>723.2653925452485</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,19 +4570,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>549.9383681074144</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N5" t="n">
-        <v>549.9383681074144</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
         <v>1651.269438076291</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>1641.263477976562</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X5" t="n">
-        <v>1633.583883184714</v>
+        <v>1458.118104440427</v>
       </c>
       <c r="Y5" t="n">
-        <v>1632.287017180008</v>
+        <v>1456.821238435722</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>423.6702648437783</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>974.3357998282165</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="M6" t="n">
-        <v>974.3357998282165</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N6" t="n">
-        <v>1525.001334812655</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>2075.666869797093</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>2142.891942377673</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>738.9277078106735</v>
+        <v>955.8175733480448</v>
       </c>
       <c r="C7" t="n">
-        <v>566.9551446895895</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D7" t="n">
-        <v>520.7596690940074</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
@@ -4752,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>2171.454078144021</v>
       </c>
       <c r="V7" t="n">
-        <v>1482.686776502613</v>
+        <v>1889.74261075205</v>
       </c>
       <c r="W7" t="n">
-        <v>1207.834372675126</v>
+        <v>1614.890206924563</v>
       </c>
       <c r="X7" t="n">
-        <v>965.2704761209314</v>
+        <v>1372.326310370368</v>
       </c>
       <c r="Y7" t="n">
-        <v>738.9277078106735</v>
+        <v>1145.98354206011</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1258.989642055132</v>
+        <v>2095.759537287837</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.129316108836</v>
+        <v>1668.858807301137</v>
       </c>
       <c r="D8" t="n">
-        <v>1216.87709933424</v>
+        <v>1245.566186486137</v>
       </c>
       <c r="E8" t="n">
-        <v>790.9001594820976</v>
+        <v>819.5892466339948</v>
       </c>
       <c r="F8" t="n">
-        <v>769.8163817119018</v>
+        <v>394.465064823395</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4804,19 +4804,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L8" t="n">
         <v>549.9383681074144</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>1100.603903091853</v>
       </c>
-      <c r="M8" t="n">
-        <v>1651.269438076291</v>
-      </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
         <v>1651.269438076291</v>
@@ -4834,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1283.774063102812</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1283.774063102812</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1276.094468310963</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1274.797602306257</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>423.6702648437783</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>423.6702648437783</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>423.6702648437783</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>577.4153955460176</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>1128.080930530456</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>919.2562678787699</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1944.726803962681</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1663.01533657071</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1388.162932743223</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1145.599036189028</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>919.2562678787699</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063314</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076614</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261614</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409472</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598872</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883206</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5059,34 +5059,34 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209198</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.48789580561</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931859</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232206</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399953</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354844</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>669.4262044372838</v>
+        <v>669.4262044372837</v>
       </c>
       <c r="C12" t="n">
-        <v>551.9203009547886</v>
+        <v>551.9203009547884</v>
       </c>
       <c r="D12" t="n">
-        <v>448.0803424700736</v>
+        <v>448.0803424700735</v>
       </c>
       <c r="E12" t="n">
-        <v>343.3784087430108</v>
+        <v>343.3784087430107</v>
       </c>
       <c r="F12" t="n">
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.6909478072573</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>939.4897558901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>939.4897558901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>939.4897558901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
         <v>1828.971033901635</v>
@@ -5162,10 +5162,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>938.0461025040541</v>
+        <v>938.046102504054</v>
       </c>
       <c r="Y12" t="n">
-        <v>798.3532138573465</v>
+        <v>798.3532138573464</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9189991784958</v>
+        <v>446.137050752352</v>
       </c>
       <c r="C13" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
         <v>102.3027134058285</v>
@@ -5199,10 +5199,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.389535262407</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1685.678067870436</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>1410.825664042949</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>1168.261767488754</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>941.9189991784958</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883223</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164565</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
@@ -5360,19 +5360,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.289251381874</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N15" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O15" t="n">
-        <v>1446.844867123559</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
         <v>1446.844867123559</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>930.0221429225235</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C16" t="n">
-        <v>758.0495798014394</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D16" t="n">
-        <v>594.7328069282102</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E16" t="n">
-        <v>512.1245198631661</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>1955.492679006434</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V16" t="n">
-        <v>1673.781211614463</v>
+        <v>1856.323532201118</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.928807786976</v>
+        <v>1581.471128373631</v>
       </c>
       <c r="X16" t="n">
-        <v>1156.364911232781</v>
+        <v>1338.907231819436</v>
       </c>
       <c r="Y16" t="n">
-        <v>930.0221429225235</v>
+        <v>1112.564463509178</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L18" t="n">
-        <v>381.4468456473314</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M18" t="n">
-        <v>1364.825557038856</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.825557038856</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="O18" t="n">
-        <v>1364.825557038856</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>882.9456501749507</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1542.018283751469</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1299.454387197274</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1073.111618887016</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076616</v>
@@ -5740,64 +5740,64 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5834,22 +5834,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3702.24572268525</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>3530.273159564166</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>3366.956386690937</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E22" t="n">
-        <v>3200.748180843791</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F22" t="n">
-        <v>3200.748180843791</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>4945.000622810562</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>4664.816174310867</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>4409.827991778998</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>4134.975587951511</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>3892.411691397316</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>3892.411691397316</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>195.4640539534684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2129.375202991803</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6080,10 +6080,10 @@
         <v>939.1015214887346</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>759.1116442217531</v>
+        <v>842.3270571327721</v>
       </c>
       <c r="C25" t="n">
-        <v>759.1116442217531</v>
+        <v>842.3270571327721</v>
       </c>
       <c r="D25" t="n">
-        <v>595.7948713485238</v>
+        <v>679.0102842595428</v>
       </c>
       <c r="E25" t="n">
-        <v>429.5866655013773</v>
+        <v>512.8020784123963</v>
       </c>
       <c r="F25" t="n">
-        <v>257.7248912759377</v>
+        <v>340.9403041869567</v>
       </c>
       <c r="G25" t="n">
-        <v>257.7248912759377</v>
+        <v>174.6833344811889</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>174.6833344811889</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.1116442217531</v>
+        <v>1032.493025844838</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3729.364118014585</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4945.000622810562</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4945.000622810562</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4663.289155418591</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4388.436751591104</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4145.872855036909</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3919.530086726651</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6542,28 +6542,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>109.7493563677404</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1013.511272808982</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.529878172021</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1312.677474344533</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1070.113577790339</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1013.511272808982</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6703,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6736,16 +6736,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L33" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M33" t="n">
-        <v>1165.735894343786</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N33" t="n">
-        <v>1165.735894343786</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3372.561191210609</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>3372.561191210609</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>3372.561191210609</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>3206.352985363462</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4588.197696006586</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>4306.486228614614</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>4031.633824787127</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>3789.069928232932</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>3562.727159922674</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6922,67 +6922,67 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988737</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623572</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M35" t="n">
-        <v>2720.098147267827</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3696.349205754528</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.49385590534</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7007,13 +7007,13 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677403</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
         <v>381.4468456473314</v>
@@ -7028,16 +7028,16 @@
         <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.8905159778161</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>706.3982314439064</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>706.3982314439064</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>540.1900255967599</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7165,49 +7165,49 @@
         <v>839.407025598874</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623572</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>533.9931985757474</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.618246195024</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2467.904347614082</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3444.155406100783</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251595</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409523</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
         <v>4173.998480931861</v>
@@ -7244,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7253,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>357.9938188649342</v>
       </c>
       <c r="L39" t="n">
-        <v>964.4851292537592</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M39" t="n">
-        <v>1364.825557038856</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N39" t="n">
-        <v>1364.825557038856</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O39" t="n">
-        <v>1364.825557038856</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1019.226866224298</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>847.2543031032135</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9375302299842</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>517.7293243828377</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7362,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1762.985934916237</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1762.985934916237</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1488.13353108875</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1245.569634534555</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1019.226866224298</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,49 +7399,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L42" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M42" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N42" t="n">
-        <v>1463.315149158289</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O42" t="n">
-        <v>1463.315149158289</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1463.315149158289</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>753.250092117427</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>581.277528996343</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>417.9607561231137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>417.9607561231137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>753.250092117427</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.250092117427</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,34 +7648,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N44" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
         <v>4789.842805209199</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>964.4851292537592</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L45" t="n">
-        <v>964.4851292537592</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M45" t="n">
-        <v>964.4851292537592</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N45" t="n">
-        <v>964.4851292537592</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O45" t="n">
-        <v>964.4851292537592</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1680.682846292257</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3675.522437825148</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>3503.549874704064</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>3503.549874704064</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>3372.60995506923</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>3200.748180843791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>4945.000622810562</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>4664.816174310867</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>4383.104706918895</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>4108.252303091408</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>3865.688406537213</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>3865.688406537213</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487768</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>406.8827156170788</v>
+        <v>522.0887335865934</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540534023</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>39.58417600184169</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641987</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873039</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778682001</v>
       </c>
       <c r="M3" t="n">
-        <v>330.8189978337137</v>
+        <v>48.85522789279528</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675091</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761896</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8151,10 +8151,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.64032950871422</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836741763</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8218,10 +8218,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>181.710741931019</v>
@@ -8230,10 +8230,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8297,7 +8297,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8306,19 +8306,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>89.67495492258692</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>180.0440798263965</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8467,7 +8467,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8531,22 +8531,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M9" t="n">
-        <v>178.3948923327717</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>100.0581876036193</v>
+        <v>218.8019602115987</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.7913897943725</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8929,19 +8929,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735944</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>60.75701611917185</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>653.7961895378344</v>
       </c>
       <c r="Q17" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.408610200736</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>132.5853933762155</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.484595333063</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9482,16 +9482,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>701.9229593655479</v>
       </c>
       <c r="N21" t="n">
-        <v>698.7993741930985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>123.5223236751217</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9728,13 +9728,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>104.5829721389275</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,16 +9886,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,19 +10120,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10190,31 +10190,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M30" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>775.9541620884372</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M35" t="n">
-        <v>653.6520906270349</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10676,10 +10676,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>501.0532250901962</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>471.8155959159396</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822436</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10901,16 +10901,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>280.6730777314198</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>427.4810510023246</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10919,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11077,10 +11077,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>100.0581876036193</v>
+        <v>578.3809836794701</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>199.0367084809718</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>392.0964168176105</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>952.685833629606</v>
       </c>
       <c r="M44" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>489.184786214375</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>776.6671919541075</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>172.5330863792592</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>252.6838419897718</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>82.7639195942814</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>134.1486702010892</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>137.8291987530666</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>68.15019490184621</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>26.45605201150116</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>87.2612322926459</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>27.11406771252007</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>123.970645769574</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.0430586956118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>211.6218879548198</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>134.1254758013025</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="U40" t="n">
-        <v>218.7579746531204</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25803,7 +25803,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>71.98949189919239</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>10.25598037821476</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>34.91560335018974</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>491989.5605771744</v>
+        <v>491989.5605771746</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>521735.596138974</v>
+        <v>521735.5961389738</v>
       </c>
     </row>
     <row r="9">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>582442.6680111631</v>
+      </c>
+      <c r="C2" t="n">
         <v>582442.6680111629</v>
       </c>
-      <c r="C2" t="n">
-        <v>582442.6680111627</v>
-      </c>
       <c r="D2" t="n">
-        <v>582442.6680111631</v>
+        <v>582442.6680111632</v>
       </c>
       <c r="E2" t="n">
-        <v>562030.403137447</v>
+        <v>562030.4031374475</v>
       </c>
       <c r="F2" t="n">
-        <v>562030.4031374471</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="G2" t="n">
-        <v>562030.403137447</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="H2" t="n">
-        <v>562030.4031374473</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="I2" t="n">
-        <v>562030.4031374475</v>
+        <v>562030.4031374477</v>
       </c>
       <c r="J2" t="n">
         <v>562030.4031374473</v>
       </c>
       <c r="K2" t="n">
+        <v>562030.4031374472</v>
+      </c>
+      <c r="L2" t="n">
         <v>562030.4031374473</v>
-      </c>
-      <c r="L2" t="n">
-        <v>562030.4031374471</v>
       </c>
       <c r="M2" t="n">
         <v>562030.4031374473</v>
       </c>
       <c r="N2" t="n">
-        <v>562030.4031374473</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="O2" t="n">
-        <v>562030.4031374472</v>
+        <v>562030.4031374477</v>
       </c>
       <c r="P2" t="n">
         <v>562030.4031374474</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.696069591</v>
+        <v>162124.6960695921</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361241</v>
+        <v>23406.8336736114</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566404</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802887</v>
+        <v>126577.2685802895</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701994</v>
+        <v>18646.60035701916</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551676</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.6236465253</v>
+        <v>211246.6236465249</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26426,19 +26426,19 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
+        <v>101012.8540458318</v>
+      </c>
+      <c r="F4" t="n">
         <v>101012.8540458319</v>
-      </c>
-      <c r="F4" t="n">
-        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
         <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="I4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="J4" t="n">
         <v>101012.8540458319</v>
@@ -26447,16 +26447,16 @@
         <v>101012.8540458319</v>
       </c>
       <c r="L4" t="n">
+        <v>101012.8540458318</v>
+      </c>
+      <c r="M4" t="n">
         <v>101012.8540458319</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>101012.8540458318</v>
       </c>
-      <c r="N4" t="n">
-        <v>101012.8540458319</v>
-      </c>
       <c r="O4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
         <v>101012.8540458318</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216122</v>
+        <v>63041.22282216141</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146030.1254728854</v>
+        <v>146030.1254728849</v>
       </c>
       <c r="C6" t="n">
-        <v>291723.1913107806</v>
+        <v>291723.1913107819</v>
       </c>
       <c r="D6" t="n">
-        <v>315130.0249843935</v>
+        <v>315130.0249843936</v>
       </c>
       <c r="E6" t="n">
-        <v>167528.1303465448</v>
+        <v>167477.0996843614</v>
       </c>
       <c r="F6" t="n">
-        <v>383267.4869031856</v>
+        <v>383216.4562410014</v>
       </c>
       <c r="G6" t="n">
-        <v>383267.4869031855</v>
+        <v>383216.4562410017</v>
       </c>
       <c r="H6" t="n">
-        <v>383267.4869031858</v>
+        <v>383216.4562410016</v>
       </c>
       <c r="I6" t="n">
-        <v>383267.486903186</v>
+        <v>383216.4562410017</v>
       </c>
       <c r="J6" t="n">
-        <v>256690.2183228971</v>
+        <v>256639.1876607121</v>
       </c>
       <c r="K6" t="n">
-        <v>364620.8865461658</v>
+        <v>364569.8558839823</v>
       </c>
       <c r="L6" t="n">
-        <v>383267.4869031855</v>
+        <v>383216.4562410015</v>
       </c>
       <c r="M6" t="n">
-        <v>203203.6154480182</v>
+        <v>203152.584785834</v>
       </c>
       <c r="N6" t="n">
-        <v>383267.4869031858</v>
+        <v>383216.4562410014</v>
       </c>
       <c r="O6" t="n">
-        <v>383267.4869031855</v>
+        <v>383216.4562410019</v>
       </c>
       <c r="P6" t="n">
-        <v>383267.4869031859</v>
+        <v>383216.4562410017</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26715,13 +26715,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539705</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,16 +26798,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26822,10 +26822,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
         <v>1278.783917572857</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539705</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162671</v>
+        <v>72.45112196162358</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.556104457262</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,25 +27032,25 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539705</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162671</v>
+        <v>72.45112196162358</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572622</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539705</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162671</v>
+        <v>72.45112196162358</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>212.5630528047511</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>72.90484500150507</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>84.50725511675111</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>128.3518017933706</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>302.0272969222486</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>57.753773250074</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>115.9500843048708</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>271.0282286192257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>11.66829397508712</v>
+        <v>88.37640295400337</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5679663206405</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969948</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28067,10 +28067,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.002665031701327e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.002665031701327e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.919224192712259e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539674</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>368.5706731844558</v>
+        <v>483.7766911539705</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539705</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.304553167395666</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539674</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539705</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539705</v>
       </c>
       <c r="M3" t="n">
-        <v>307.7222173213857</v>
+        <v>25.75844738046731</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539674</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539674</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34871,10 +34871,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201028977</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709431147</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34938,10 +34938,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>144.2794790315872</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>67.90411371775825</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M9" t="n">
-        <v>155.2981118204437</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>62.48282579338804</v>
+        <v>181.2265984013674</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0.392155961039167</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35649,19 +35649,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391483</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>616.2208277276031</v>
       </c>
       <c r="Q17" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>993.3118296884085</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.0533324336312</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="N21" t="n">
-        <v>677.4563459795569</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>94.10236418953517</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,16 +36606,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,19 +36840,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36910,31 +36910,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M30" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M35" t="n">
-        <v>616.2208277276031</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37396,10 +37396,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>436.0509951211303</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37797,10 +37797,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>62.48282579338804</v>
+        <v>540.8056218692387</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>177.6936802674302</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>369.349378528632</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>914.3737911969831</v>
       </c>
       <c r="M44" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>451.905163379929</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>754.1521052398779</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>149.7860480902807</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
